--- a/images/images.xlsx
+++ b/images/images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF16504A-F525-4F0F-AA31-EA82CFF3D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47059967-D02E-437A-82E7-AA30CA3DBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62910211-CFC4-431D-B4FC-F3CA2666BD3A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{62910211-CFC4-431D-B4FC-F3CA2666BD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Image filename</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>phenotypes</t>
-  </si>
-  <si>
-    <t>compounds</t>
   </si>
   <si>
     <t>LABEL</t>
@@ -343,6 +340,13 @@
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -443,13 +447,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -464,12 +461,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8A20915-4C6C-4630-988F-E834777C861B}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8A20915-4C6C-4630-988F-E834777C861B}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:C18" xr:uid="{E8A20915-4C6C-4630-988F-E834777C861B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7734FE02-B84E-4AEF-8686-80FE9126C8D0}" name="LABEL" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CB314FC7-3E8A-47C6-BBE7-938380A1ED7B}" name="DEFINITION" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{95550F87-A11D-4ABA-A80A-CA3FD9418ACF}" name="VALUE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7734FE02-B84E-4AEF-8686-80FE9126C8D0}" name="LABEL" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CB314FC7-3E8A-47C6-BBE7-938380A1ED7B}" name="DEFINITION" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{95550F87-A11D-4ABA-A80A-CA3FD9418ACF}" name="VALUE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,8 +488,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02E8F565-9A10-4C7B-BA7D-D787C6629918}" name="Table2" displayName="Table2" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4" xr:uid="{02E8F565-9A10-4C7B-BA7D-D787C6629918}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02E8F565-9A10-4C7B-BA7D-D787C6629918}" name="Table2" displayName="Table2" ref="A1:A3" totalsRowShown="0">
+  <autoFilter ref="A1:A3" xr:uid="{02E8F565-9A10-4C7B-BA7D-D787C6629918}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4C8E1825-0631-4275-85EC-4B7F516780A6}" name="Valid types"/>
   </tableColumns>
@@ -799,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401ABAE-6B16-419F-BB03-9A787188C958}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -812,190 +809,190 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1006,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1027,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F785D37-07C7-4224-8898-3FD19FAA2716}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1060,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D2">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1077,7 +1074,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50525B61-B846-4892-AB7D-A00D1F25927D}">
           <x14:formula1>
-            <xm:f>TYPES!$A$2:$A$4</xm:f>
+            <xm:f>TYPES!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -1089,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D0AFA9-B4F9-499B-ACD9-7E44905D073A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,11 +1112,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/images/images.xlsx
+++ b/images/images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47059967-D02E-437A-82E7-AA30CA3DBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4FD57-2D0C-4648-9654-A78D33A90CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{62910211-CFC4-431D-B4FC-F3CA2666BD3A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62910211-CFC4-431D-B4FC-F3CA2666BD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="6" r:id="rId1"/>
@@ -340,6 +340,13 @@
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -440,13 +447,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -461,12 +461,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8A20915-4C6C-4630-988F-E834777C861B}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8A20915-4C6C-4630-988F-E834777C861B}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:C18" xr:uid="{E8A20915-4C6C-4630-988F-E834777C861B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7734FE02-B84E-4AEF-8686-80FE9126C8D0}" name="LABEL" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CB314FC7-3E8A-47C6-BBE7-938380A1ED7B}" name="DEFINITION" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{95550F87-A11D-4ABA-A80A-CA3FD9418ACF}" name="VALUE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7734FE02-B84E-4AEF-8686-80FE9126C8D0}" name="LABEL" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CB314FC7-3E8A-47C6-BBE7-938380A1ED7B}" name="DEFINITION" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{95550F87-A11D-4ABA-A80A-CA3FD9418ACF}" name="VALUE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -498,9 +498,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,7 +538,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -644,7 +644,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401ABAE-6B16-419F-BB03-9A787188C958}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1006,7 +1006,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F785D37-07C7-4224-8898-3FD19FAA2716}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
